--- a/Proyecto/utils/PlantillaOrden.xlsx
+++ b/Proyecto/utils/PlantillaOrden.xlsx
@@ -69,9 +69,6 @@
     <t>EMAIL_USUARIO</t>
   </si>
   <si>
-    <t>ID Producto</t>
-  </si>
-  <si>
     <t>Nombre Producto</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>ORDEN DE COMPRA</t>
+  </si>
+  <si>
+    <t>Referencia</t>
   </si>
 </sst>
 </file>
@@ -185,15 +185,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,16 +513,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -530,7 +530,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -538,22 +538,22 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
@@ -561,13 +561,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
@@ -575,13 +575,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
@@ -589,44 +589,44 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
